--- a/data/outputs/management_altmetric/56.xlsx
+++ b/data/outputs/management_altmetric/56.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE93"/>
+  <dimension ref="A1:CF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1268,6 +1276,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1760,6 +1774,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2011,6 +2028,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2246,6 +2266,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2505,6 +2528,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2756,6 +2782,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3011,6 +3040,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,6 +3286,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3503,6 +3538,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3756,6 +3794,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3999,6 +4040,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,6 +4286,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4495,6 +4542,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4744,6 +4794,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4987,6 +5040,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5228,6 +5284,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5459,6 +5518,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5706,6 +5768,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,6 +6014,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6202,6 +6270,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6463,6 +6534,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6720,6 +6794,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6965,6 +7042,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7222,6 +7302,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7473,6 +7556,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7726,6 +7812,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7971,6 +8060,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8228,6 +8320,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8475,6 +8570,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8706,6 +8804,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8953,6 +9054,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9198,6 +9302,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9441,6 +9548,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9684,6 +9794,9 @@
       <c r="CE37" t="n">
         <v>1</v>
       </c>
+      <c r="CF37" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9938,6 +10051,9 @@
       </c>
       <c r="CE38" t="n">
         <v>1</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>73.05</v>
       </c>
     </row>
     <row r="39">
@@ -10182,6 +10298,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10425,6 +10544,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>24.426</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10660,6 +10782,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>7.55</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10913,6 +11038,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11166,6 +11294,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11421,6 +11552,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>72.15000000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11676,6 +11810,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11925,6 +12062,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12174,6 +12314,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12429,6 +12572,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12676,6 +12822,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12919,6 +13068,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13164,6 +13316,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13411,6 +13566,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13666,6 +13824,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13907,6 +14068,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14142,6 +14306,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14387,6 +14554,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14630,6 +14800,9 @@
       <c r="CE57" t="n">
         <v>2</v>
       </c>
+      <c r="CF57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14871,6 +15044,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15112,6 +15288,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15359,6 +15538,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15602,6 +15784,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15843,6 +16028,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16084,6 +16272,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16327,6 +16518,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16568,6 +16762,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16809,6 +17006,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17059,6 +17259,9 @@
       </c>
       <c r="CE67" t="n">
         <v>0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="68">
@@ -17293,6 +17496,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17542,6 +17748,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17792,6 +18001,9 @@
       </c>
       <c r="CE70" t="n">
         <v>0</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -18034,6 +18246,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18271,6 +18486,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18514,6 +18732,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18757,6 +18978,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18998,6 +19222,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19249,6 +19476,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19480,6 +19710,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19717,6 +19950,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19944,6 +20180,9 @@
       <c r="CE79" t="n">
         <v>3</v>
       </c>
+      <c r="CF79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20189,6 +20428,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20438,6 +20680,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20681,6 +20926,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20924,6 +21172,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21165,6 +21416,9 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21396,6 +21650,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21643,6 +21900,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21888,6 +22148,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22133,6 +22396,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22376,6 +22642,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22623,6 +22892,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22872,6 +23144,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23117,6 +23392,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23362,6 +23640,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
